--- a/1des/sop/atividades/lista04-excel/lista04.xlsx
+++ b/1des/sop/atividades/lista04-excel/lista04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aula-c\senai\1des\sop\atividades\lista04-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74088BA4-8B0E-4997-A12A-9E1F15C07130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C49D7-89B9-4C05-89F8-2BCA74AC9C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7E7080A4-A7FC-44B6-AE51-E822FD12A4DE}"/>
   </bookViews>
@@ -470,11 +470,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,7 +506,7 @@
         <v>1320</v>
       </c>
       <c r="F2" s="3">
-        <f>E2*indice+E2</f>
+        <f t="shared" ref="F2:F8" si="0">E2*indice+E2</f>
         <v>1386</v>
       </c>
     </row>
@@ -515,7 +518,7 @@
         <v>5000</v>
       </c>
       <c r="F3" s="3">
-        <f>E3*indice+E3</f>
+        <f t="shared" si="0"/>
         <v>5250</v>
       </c>
     </row>
@@ -527,7 +530,7 @@
         <v>2750</v>
       </c>
       <c r="F4" s="3">
-        <f>E4*indice+E4</f>
+        <f t="shared" si="0"/>
         <v>2887.5</v>
       </c>
     </row>
@@ -539,7 +542,7 @@
         <v>9450</v>
       </c>
       <c r="F5" s="3">
-        <f>E5*indice+E5</f>
+        <f t="shared" si="0"/>
         <v>9922.5</v>
       </c>
     </row>
@@ -551,7 +554,7 @@
         <v>2948</v>
       </c>
       <c r="F6" s="3">
-        <f>E6*indice+E6</f>
+        <f t="shared" si="0"/>
         <v>3095.4</v>
       </c>
     </row>
@@ -563,7 +566,7 @@
         <v>1958</v>
       </c>
       <c r="F7" s="3">
-        <f>E7*indice+E7</f>
+        <f t="shared" si="0"/>
         <v>2055.9</v>
       </c>
     </row>
@@ -575,7 +578,7 @@
         <v>5291</v>
       </c>
       <c r="F8" s="3">
-        <f>E8*indice+E8</f>
+        <f t="shared" si="0"/>
         <v>5555.55</v>
       </c>
     </row>
